--- a/git.xlsx
+++ b/git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixer57\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD66497B-647B-4751-B4F5-D1F81B2B02B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1BEA90-8436-416A-87E3-22E69ECC200D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{90600D19-845A-4E0D-BB33-1EEA0D4C42DD}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>asdf</t>
   </si>
   <si>
     <t>dsdfg</t>
+  </si>
+  <si>
+    <t>sdfg</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -398,6 +401,9 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -405,6 +411,9 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/git.xlsx
+++ b/git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixer57\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1BEA90-8436-416A-87E3-22E69ECC200D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC444C-0FEF-44C5-A011-DFDD79967A8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{90600D19-845A-4E0D-BB33-1EEA0D4C42DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>asdf</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>sdfg</t>
+  </si>
+  <si>
+    <t>sadf</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -408,12 +411,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/git.xlsx
+++ b/git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixer57\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC444C-0FEF-44C5-A011-DFDD79967A8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9612EFE9-121D-4026-8338-B326A76A82C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{90600D19-845A-4E0D-BB33-1EEA0D4C42DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>asdf</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>sadf</t>
+  </si>
+  <si>
+    <t>adsf</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B47E6E-C378-41C6-8988-5ABDB97993BE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:D7"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -411,12 +419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -427,12 +435,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>

--- a/git.xlsx
+++ b/git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mixer57\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9612EFE9-121D-4026-8338-B326A76A82C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398343B3-B77F-4BF0-B286-ABCEE2024D6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{90600D19-845A-4E0D-BB33-1EEA0D4C42DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>asdf</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>sdfg</t>
-  </si>
-  <si>
-    <t>sadf</t>
   </si>
   <si>
     <t>adsf</t>
@@ -392,17 +389,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B47E6E-C378-41C6-8988-5ABDB97993BE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -436,8 +433,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D6">
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -446,6 +443,29 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5678</v>
+      </c>
+      <c r="C10">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
